--- a/validacao/validacao_rat_vo_nova_predicao.xlsx
+++ b/validacao/validacao_rat_vo_nova_predicao.xlsx
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -20102,7 +20102,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -20128,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="H758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -22884,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="H914" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -25094,7 +25094,7 @@
         <v>0</v>
       </c>
       <c r="H948" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="H967" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -26056,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="H985" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -29748,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="H1134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -30684,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="H1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164">
@@ -31464,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="H1193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194">
@@ -31854,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="H1208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -32036,7 +32036,7 @@
         <v>0</v>
       </c>
       <c r="H1215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -32530,7 +32530,7 @@
         <v>0</v>
       </c>
       <c r="H1234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -34402,7 +34402,7 @@
         <v>0</v>
       </c>
       <c r="H1306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
       <c r="H1312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="H1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -36664,7 +36664,7 @@
         <v>0</v>
       </c>
       <c r="H1393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -37262,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="H1416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="H1451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -38458,7 +38458,7 @@
         <v>0</v>
       </c>
       <c r="H1462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -41630,7 +41630,7 @@
         <v>0</v>
       </c>
       <c r="H1584" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -42072,7 +42072,7 @@
         <v>0</v>
       </c>
       <c r="H1601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -42566,7 +42566,7 @@
         <v>0</v>
       </c>
       <c r="H1620" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621">
@@ -42644,7 +42644,7 @@
         <v>0</v>
       </c>
       <c r="H1623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624">
@@ -43788,7 +43788,7 @@
         <v>0</v>
       </c>
       <c r="H1667" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1668">
@@ -44048,7 +44048,7 @@
         <v>0</v>
       </c>
       <c r="H1677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678">
@@ -45998,7 +45998,7 @@
         <v>0</v>
       </c>
       <c r="H1752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1753">
@@ -46050,7 +46050,7 @@
         <v>0</v>
       </c>
       <c r="H1754" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755">
@@ -46336,7 +46336,7 @@
         <v>0</v>
       </c>
       <c r="H1765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1766">
@@ -47480,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="H1809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810">
@@ -47532,7 +47532,7 @@
         <v>0</v>
       </c>
       <c r="H1811" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812">
@@ -48754,7 +48754,7 @@
         <v>0</v>
       </c>
       <c r="H1858" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1859">
@@ -49924,7 +49924,7 @@
         <v>0</v>
       </c>
       <c r="H1903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1904">
@@ -50340,7 +50340,7 @@
         <v>0</v>
       </c>
       <c r="H1919" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920">
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="H1940" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1941">
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="H1981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982">
@@ -52368,7 +52368,7 @@
         <v>0</v>
       </c>
       <c r="H1997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998">
@@ -52602,7 +52602,7 @@
         <v>0</v>
       </c>
       <c r="H2006" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -53902,7 +53902,7 @@
         <v>0</v>
       </c>
       <c r="H2056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057">
@@ -54838,7 +54838,7 @@
         <v>0</v>
       </c>
       <c r="H2092" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2093">
@@ -55462,7 +55462,7 @@
         <v>0</v>
       </c>
       <c r="H2116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2117">
@@ -56164,7 +56164,7 @@
         <v>0</v>
       </c>
       <c r="H2143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2144">
@@ -56918,7 +56918,7 @@
         <v>0</v>
       </c>
       <c r="H2172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2173">
@@ -58634,7 +58634,7 @@
         <v>0</v>
       </c>
       <c r="H2238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239">
@@ -59050,7 +59050,7 @@
         <v>0</v>
       </c>
       <c r="H2254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="H2256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257">
@@ -59648,7 +59648,7 @@
         <v>0</v>
       </c>
       <c r="H2277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2278">
@@ -59778,7 +59778,7 @@
         <v>0</v>
       </c>
       <c r="H2282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283">
@@ -63314,7 +63314,7 @@
         <v>0</v>
       </c>
       <c r="H2418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2419">
@@ -63626,7 +63626,7 @@
         <v>0</v>
       </c>
       <c r="H2430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431">
@@ -64068,7 +64068,7 @@
         <v>0</v>
       </c>
       <c r="H2447" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448">
